--- a/Energy.xlsx
+++ b/Energy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45B07E9-9A63-4237-82F7-6B6D6D44D47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88067BB9-7C67-417F-8E6D-994E755CC5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-44730" yWindow="1740" windowWidth="32550" windowHeight="17250" activeTab="1" xr2:uid="{7EDE0FC2-4900-4947-B864-F866171D13D2}"/>
+    <workbookView xWindow="11250" yWindow="4360" windowWidth="26500" windowHeight="15380" xr2:uid="{7EDE0FC2-4900-4947-B864-F866171D13D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>Main</t>
   </si>
@@ -97,6 +97,84 @@
   </si>
   <si>
     <t>Interest Income</t>
+  </si>
+  <si>
+    <t>EV/EPS</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Ticker</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Upside</t>
+  </si>
+  <si>
+    <t>ROIC</t>
+  </si>
+  <si>
+    <t>Terminal</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Founded</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>New Fortress Energy</t>
+  </si>
+  <si>
+    <t>NFE</t>
+  </si>
+  <si>
+    <t>Quanta Services</t>
+  </si>
+  <si>
+    <t>PWR</t>
+  </si>
+  <si>
+    <t>PrimeEnergy Resources</t>
+  </si>
+  <si>
+    <t>PNRG</t>
+  </si>
+  <si>
+    <t>Talen Energy</t>
+  </si>
+  <si>
+    <t>TLN</t>
+  </si>
+  <si>
+    <t>Exxon Mobile</t>
+  </si>
+  <si>
+    <t>XOM</t>
+  </si>
+  <si>
+    <t>Chevron</t>
+  </si>
+  <si>
+    <t>CVX</t>
   </si>
 </sst>
 </file>
@@ -106,7 +184,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -115,6 +193,12 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -141,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -150,6 +234,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,12 +583,265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23773607-D465-464F-AEDB-7534D12B8447}">
-  <dimension ref="A1"/>
+  <dimension ref="C1:AD9"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.6328125" customWidth="1"/>
+    <col min="2" max="2" width="2" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+    </row>
+    <row r="2" spans="3:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+    </row>
+    <row r="3" spans="3:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>2022</v>
+      </c>
+      <c r="R3" s="8">
+        <v>2023</v>
+      </c>
+      <c r="S3" s="8">
+        <v>2024</v>
+      </c>
+      <c r="T3" s="8">
+        <v>2025</v>
+      </c>
+      <c r="U3" s="8">
+        <v>2026</v>
+      </c>
+      <c r="V3" s="8">
+        <v>2027</v>
+      </c>
+      <c r="W3" s="8">
+        <v>2022</v>
+      </c>
+      <c r="X3" s="8">
+        <v>2023</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>2024</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>2025</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>2026</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>2027</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="3:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+    </row>
+    <row r="5" spans="3:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+    </row>
+    <row r="6" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="W2:AB2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -500,21 +850,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EEE512-0550-4946-9B5B-54B0D6B1046D}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
         <v>1</v>
       </c>
@@ -522,7 +872,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K3" t="s">
         <v>2</v>
       </c>
@@ -533,7 +883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K4" t="s">
         <v>3</v>
       </c>
@@ -542,7 +892,7 @@
         <v>80.071401510000001</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K5" t="s">
         <v>4</v>
       </c>
@@ -554,7 +904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K6" t="s">
         <v>5</v>
       </c>
@@ -565,7 +915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K7" t="s">
         <v>6</v>
       </c>
@@ -574,7 +924,7 @@
         <v>61.628887509999998</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>2015</v>
       </c>
@@ -585,43 +935,43 @@
         <v>2017</v>
       </c>
       <c r="F9">
-        <f>+E9+1</f>
+        <f t="shared" ref="F9:N9" si="0">+E9+1</f>
         <v>2018</v>
       </c>
       <c r="G9">
-        <f>+F9+1</f>
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="H9">
-        <f>+G9+1</f>
+        <f t="shared" si="0"/>
         <v>2020</v>
       </c>
       <c r="I9">
-        <f>+H9+1</f>
+        <f t="shared" si="0"/>
         <v>2021</v>
       </c>
       <c r="J9">
-        <f>+I9+1</f>
+        <f t="shared" si="0"/>
         <v>2022</v>
       </c>
       <c r="K9">
-        <f>+J9+1</f>
+        <f t="shared" si="0"/>
         <v>2023</v>
       </c>
       <c r="L9">
-        <f>+K9+1</f>
+        <f t="shared" si="0"/>
         <v>2024</v>
       </c>
       <c r="M9">
-        <f>+L9+1</f>
+        <f t="shared" si="0"/>
         <v>2025</v>
       </c>
       <c r="N9">
-        <f>+M9+1</f>
+        <f t="shared" si="0"/>
         <v>2026</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -650,7 +1000,7 @@
         <v>58.208060000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
@@ -679,44 +1029,44 @@
         <v>27.676041999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="3">
-        <f>+D10-D11</f>
+        <f t="shared" ref="D12:K12" si="1">+D10-D11</f>
         <v>8.1000379999999996</v>
       </c>
       <c r="E12" s="3">
-        <f>+E10-E11</f>
+        <f t="shared" si="1"/>
         <v>20.263906999999996</v>
       </c>
       <c r="F12" s="3">
-        <f>+F10-F11</f>
+        <f t="shared" si="1"/>
         <v>22.901179999999997</v>
       </c>
       <c r="G12" s="3">
-        <f>+G10-G11</f>
+        <f t="shared" si="1"/>
         <v>19.528359000000002</v>
       </c>
       <c r="H12" s="3">
-        <f>+H10-H11</f>
+        <f t="shared" si="1"/>
         <v>9.5262009999999986</v>
       </c>
       <c r="I12" s="3">
-        <f>+I10-I11</f>
+        <f t="shared" si="1"/>
         <v>11.401000000000002</v>
       </c>
       <c r="J12" s="3">
-        <f>+J10-J11</f>
+        <f t="shared" si="1"/>
         <v>21.651389999999996</v>
       </c>
       <c r="K12" s="3">
-        <f>+K10-K11</f>
+        <f t="shared" si="1"/>
         <v>30.532018000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
@@ -745,7 +1095,7 @@
         <v>17.184916999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
@@ -774,81 +1124,81 @@
         <v>0.91712300000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="3">
-        <f>+D14+D13</f>
+        <f t="shared" ref="D15:K15" si="2">+D14+D13</f>
         <v>7.9559610000000003</v>
       </c>
       <c r="E15" s="3">
-        <f>+E14+E13</f>
+        <f t="shared" si="2"/>
         <v>12.897904</v>
       </c>
       <c r="F15" s="3">
-        <f>+F14+F13</f>
+        <f t="shared" si="2"/>
         <v>14.426667999999999</v>
       </c>
       <c r="G15" s="3">
-        <f>+G14+G13</f>
+        <f t="shared" si="2"/>
         <v>15.387307</v>
       </c>
       <c r="H15" s="3">
-        <f>+H14+H13</f>
+        <f t="shared" si="2"/>
         <v>11.932408000000001</v>
       </c>
       <c r="I15" s="3">
-        <f>+I14+I13</f>
+        <f t="shared" si="2"/>
         <v>12.652999999999999</v>
       </c>
       <c r="J15" s="3">
-        <f>+J14+J13</f>
+        <f t="shared" si="2"/>
         <v>15.828762999999999</v>
       </c>
       <c r="K15" s="3">
-        <f>+K14+K13</f>
+        <f t="shared" si="2"/>
         <v>18.102039999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="3">
-        <f>+D12-D15</f>
+        <f t="shared" ref="D16:K16" si="3">+D12-D15</f>
         <v>0.14407699999999934</v>
       </c>
       <c r="E16" s="3">
-        <f>+E12-E15</f>
+        <f t="shared" si="3"/>
         <v>7.3660029999999956</v>
       </c>
       <c r="F16" s="3">
-        <f>+F12-F15</f>
+        <f t="shared" si="3"/>
         <v>8.4745119999999972</v>
       </c>
       <c r="G16" s="3">
-        <f>+G12-G15</f>
+        <f t="shared" si="3"/>
         <v>4.141052000000002</v>
       </c>
       <c r="H16" s="3">
-        <f>+H12-H15</f>
+        <f t="shared" si="3"/>
         <v>-2.406207000000002</v>
       </c>
       <c r="I16" s="3">
-        <f>+I12-I15</f>
+        <f t="shared" si="3"/>
         <v>-1.2519999999999971</v>
       </c>
       <c r="J16" s="3">
-        <f>+J12-J15</f>
+        <f t="shared" si="3"/>
         <v>5.8226269999999971</v>
       </c>
       <c r="K16" s="3">
-        <f>+K12-K15</f>
+        <f t="shared" si="3"/>
         <v>12.429978000000006</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
@@ -877,44 +1227,44 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="3">
-        <f>+D16+D17</f>
+        <f t="shared" ref="D18:K18" si="4">+D16+D17</f>
         <v>0.34407699999999936</v>
       </c>
       <c r="E18" s="3">
-        <f>+E16+E17</f>
+        <f t="shared" si="4"/>
         <v>7.5660029999999958</v>
       </c>
       <c r="F18" s="3">
-        <f>+F16+F17</f>
+        <f t="shared" si="4"/>
         <v>8.9745119999999972</v>
       </c>
       <c r="G18" s="3">
-        <f>+G16+G17</f>
+        <f t="shared" si="4"/>
         <v>4.4410520000000018</v>
       </c>
       <c r="H18" s="3">
-        <f>+H16+H17</f>
+        <f t="shared" si="4"/>
         <v>-2.3062070000000019</v>
       </c>
       <c r="I18" s="3">
-        <f>+I16+I17</f>
+        <f t="shared" si="4"/>
         <v>-1.151999999999997</v>
       </c>
       <c r="J18" s="3">
-        <f>+J16+J17</f>
+        <f t="shared" si="4"/>
         <v>6.0226269999999973</v>
       </c>
       <c r="K18" s="3">
-        <f>+K16+K17</f>
+        <f t="shared" si="4"/>
         <v>12.829978000000006</v>
       </c>
     </row>
-    <row r="19" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
@@ -943,7 +1293,7 @@
         <v>1.669</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>16</v>
       </c>
@@ -952,72 +1302,72 @@
         <v>0.34407699999999936</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" ref="E20:K20" si="0">+E18-E19</f>
+        <f t="shared" ref="E20:K20" si="5">+E18-E19</f>
         <v>4.8930029999999958</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>6.4575119999999977</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2.8949830000000016</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-2.3062070000000019</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-1.151999999999997</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4.2842049999999974</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>11.160978000000005</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="5">
-        <f>+D20/D22</f>
+        <f t="shared" ref="D21:K21" si="6">+D20/D22</f>
         <v>6.4333768174662867E-3</v>
       </c>
       <c r="E21" s="5">
-        <f>+E20/E22</f>
+        <f t="shared" si="6"/>
         <v>9.8138774118496447E-2</v>
       </c>
       <c r="F21" s="5">
-        <f>+F20/F22</f>
+        <f t="shared" si="6"/>
         <v>0.13119064015489057</v>
       </c>
       <c r="G21" s="5">
-        <f>+G20/G22</f>
+        <f t="shared" si="6"/>
         <v>6.0144556784887074E-2</v>
       </c>
       <c r="H21" s="5">
-        <f>+H20/H22</f>
+        <f t="shared" si="6"/>
         <v>-4.8269160681545457E-2</v>
       </c>
       <c r="I21" s="5">
-        <f>+I20/I22</f>
+        <f t="shared" si="6"/>
         <v>-2.3964761316281929E-2</v>
       </c>
       <c r="J21" s="5">
-        <f>+J20/J22</f>
+        <f t="shared" si="6"/>
         <v>8.8430135135174129E-2</v>
       </c>
       <c r="K21" s="5">
-        <f>+K20/K22</f>
+        <f t="shared" si="6"/>
         <v>0.22718365118005673</v>
       </c>
     </row>
-    <row r="22" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>2</v>
       </c>

--- a/Energy.xlsx
+++ b/Energy.xlsx
@@ -5,17 +5,22 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88067BB9-7C67-417F-8E6D-994E755CC5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5471595-0C19-440F-BA5C-A6605D233B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11250" yWindow="4360" windowWidth="26500" windowHeight="15380" xr2:uid="{7EDE0FC2-4900-4947-B864-F866171D13D2}"/>
+    <workbookView xWindow="-31515" yWindow="1515" windowWidth="19845" windowHeight="16215" activeTab="1" xr2:uid="{7EDE0FC2-4900-4947-B864-F866171D13D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy" sheetId="1" r:id="rId1"/>
-    <sheet name="PFIE" sheetId="2" r:id="rId2"/>
+    <sheet name="Basics" sheetId="3" r:id="rId2"/>
+    <sheet name="PFIE" sheetId="2" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>Main</t>
   </si>
@@ -175,6 +180,42 @@
   </si>
   <si>
     <t>CVX</t>
+  </si>
+  <si>
+    <t>Occidental Petroleum</t>
+  </si>
+  <si>
+    <t>OXY</t>
+  </si>
+  <si>
+    <t>Saudi Aramco</t>
+  </si>
+  <si>
+    <t>PFIE</t>
+  </si>
+  <si>
+    <t>Bbl</t>
+  </si>
+  <si>
+    <t>Standard barrel containing 42 US gallons</t>
+  </si>
+  <si>
+    <t>BOE</t>
+  </si>
+  <si>
+    <t>Barrel of Oil equivalent</t>
+  </si>
+  <si>
+    <t>BTU</t>
+  </si>
+  <si>
+    <t>British Thermal Unit - raise temp of 1 lb of water 1 degree F</t>
+  </si>
+  <si>
+    <t>MCF</t>
+  </si>
+  <si>
+    <t>1000 cubic feet</t>
   </si>
 </sst>
 </file>
@@ -184,7 +225,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -201,6 +242,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -222,10 +270,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -244,11 +293,27 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -264,6 +329,74 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>51.001449999999998</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>1115</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>2626</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="J3">
+            <v>1.751771</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>2.0150000000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -583,23 +716,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23773607-D465-464F-AEDB-7534D12B8447}">
-  <dimension ref="C1:AD9"/>
+  <dimension ref="C1:AD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.6328125" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
     <col min="2" max="2" width="2" customWidth="1"/>
-    <col min="3" max="3" width="21.36328125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:30" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -625,7 +759,7 @@
       <c r="AA1" s="8"/>
       <c r="AB1" s="8"/>
     </row>
-    <row r="2" spans="3:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:30" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -638,24 +772,24 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10" t="s">
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-    </row>
-    <row r="3" spans="3:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+    </row>
+    <row r="3" spans="3:30" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C3" s="6" t="s">
         <v>21</v>
       </c>
@@ -741,12 +875,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="3:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:30" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -773,15 +904,19 @@
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
     </row>
-    <row r="5" spans="3:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:30" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C5" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="E5" s="7">
+        <v>120.79</v>
+      </c>
+      <c r="F5" s="16">
+        <v>474800</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -805,36 +940,175 @@
       <c r="AA5" s="8"/>
       <c r="AB5" s="8"/>
     </row>
-    <row r="6" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="6" spans="3:30" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="10">
+        <v>148.6</v>
+      </c>
+      <c r="F6" s="16">
+        <v>277900</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+    </row>
+    <row r="7" spans="3:30" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="10">
+        <v>51.25</v>
+      </c>
+      <c r="F7" s="16">
+        <v>30400</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+    </row>
+    <row r="8" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="E8" s="5">
+        <v>9.52</v>
+      </c>
+      <c r="F8" s="17">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
         <v>36</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="E9" s="11">
+        <v>314</v>
+      </c>
+      <c r="F9" s="17">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="10" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="11">
+        <v>178</v>
+      </c>
+      <c r="F10" s="1">
+        <f>+E10*J10</f>
+        <v>9078.2580999999991</v>
+      </c>
+      <c r="G10" s="1">
+        <f>+[1]Main!$M$5-[1]Main!$M$6</f>
+        <v>-1511</v>
+      </c>
+      <c r="H10" s="1">
+        <f>+F10-G10</f>
+        <v>10589.258099999999</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="1">
+        <f>+[1]Main!$M$3</f>
+        <v>51.001449999999998</v>
+      </c>
+      <c r="K10" s="13">
+        <v>45582</v>
+      </c>
+    </row>
+    <row r="11" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
+      <c r="E11" s="11">
+        <v>167</v>
+      </c>
+      <c r="F11" s="17">
+        <f>+E11*J11</f>
+        <v>292.54575699999998</v>
+      </c>
+      <c r="G11" s="1">
+        <f>+[2]Main!$J$5-[2]Main!$J$6</f>
+        <v>2.0150000000000001</v>
+      </c>
+      <c r="H11" s="1">
+        <f>+F11-G11</f>
+        <v>290.53075699999999</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="1">
+        <f>+[2]Main!$J$3</f>
+        <v>1.751771</v>
+      </c>
+      <c r="K11" s="13">
+        <v>45582</v>
+      </c>
+    </row>
+    <row r="12" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -842,11 +1116,62 @@
     <mergeCell ref="Q2:V2"/>
     <mergeCell ref="W2:AB2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1" xr:uid="{EE308E7F-1662-41BB-8E15-0A86D7ACA851}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{8304336E-E3FC-4DEC-9C50-315D92E0F15B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE02CF13-32C2-4296-9E41-19C269135C64}">
+  <dimension ref="B3:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EEE512-0550-4946-9B5B-54B0D6B1046D}">
   <dimension ref="A1:N22"/>
   <sheetViews>
@@ -854,17 +1179,17 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K2" t="s">
         <v>1</v>
       </c>
@@ -872,7 +1197,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K3" t="s">
         <v>2</v>
       </c>
@@ -883,7 +1208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K4" t="s">
         <v>3</v>
       </c>
@@ -892,7 +1217,7 @@
         <v>80.071401510000001</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K5" t="s">
         <v>4</v>
       </c>
@@ -904,7 +1229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K6" t="s">
         <v>5</v>
       </c>
@@ -915,7 +1240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K7" t="s">
         <v>6</v>
       </c>
@@ -924,7 +1249,7 @@
         <v>61.628887509999998</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>2015</v>
       </c>
@@ -971,7 +1296,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1000,7 +1325,7 @@
         <v>58.208060000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1029,7 +1354,7 @@
         <v>27.676041999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1066,7 +1391,7 @@
         <v>30.532018000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1095,7 +1420,7 @@
         <v>17.184916999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1124,7 +1449,7 @@
         <v>0.91712300000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1161,7 +1486,7 @@
         <v>18.102039999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1198,7 +1523,7 @@
         <v>12.429978000000006</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
@@ -1227,7 +1552,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
@@ -1264,7 +1589,7 @@
         <v>12.829978000000006</v>
       </c>
     </row>
-    <row r="19" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
@@ -1293,7 +1618,7 @@
         <v>1.669</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>16</v>
       </c>
@@ -1330,7 +1655,7 @@
         <v>11.160978000000005</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>15</v>
       </c>
@@ -1367,7 +1692,7 @@
         <v>0.22718365118005673</v>
       </c>
     </row>
-    <row r="22" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>2</v>
       </c>

--- a/Energy.xlsx
+++ b/Energy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D63D909-934B-4C0C-871B-EDD4EBB7F612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09F2D49-FF53-4CC5-BB56-2A844737917B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30645" yWindow="2205" windowWidth="20925" windowHeight="16725" xr2:uid="{7EDE0FC2-4900-4947-B864-F866171D13D2}"/>
+    <workbookView xWindow="-25020" yWindow="2520" windowWidth="25215" windowHeight="16575" xr2:uid="{7EDE0FC2-4900-4947-B864-F866171D13D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Price</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>Profire Energy</t>
+  </si>
+  <si>
+    <t>LandBridge</t>
+  </si>
+  <si>
+    <t>LB</t>
   </si>
 </sst>
 </file>
@@ -338,7 +344,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -372,7 +378,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23773607-D465-464F-AEDB-7534D12B8447}">
-  <dimension ref="C1:AD12"/>
+  <dimension ref="C1:AD13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -891,7 +897,7 @@
         <v>28</v>
       </c>
       <c r="E5" s="5">
-        <v>120.79</v>
+        <v>114.26</v>
       </c>
       <c r="F5" s="12">
         <v>474800</v>
@@ -1116,6 +1122,17 @@
       </c>
       <c r="K12" s="11">
         <v>45566</v>
+      </c>
+    </row>
+    <row r="13" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="9">
+        <v>64.75</v>
       </c>
     </row>
   </sheetData>

--- a/Energy.xlsx
+++ b/Energy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09F2D49-FF53-4CC5-BB56-2A844737917B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F08314C-1D21-46E1-B8EE-3E48E2F2D932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25020" yWindow="2520" windowWidth="25215" windowHeight="16575" xr2:uid="{7EDE0FC2-4900-4947-B864-F866171D13D2}"/>
+    <workbookView xWindow="470" yWindow="2770" windowWidth="21900" windowHeight="14640" xr2:uid="{7EDE0FC2-4900-4947-B864-F866171D13D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
   <si>
     <t>Price</t>
   </si>
@@ -180,6 +180,93 @@
   </si>
   <si>
     <t>LB</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Shell</t>
+  </si>
+  <si>
+    <t>SHEL LN</t>
+  </si>
+  <si>
+    <t>Petrochina</t>
+  </si>
+  <si>
+    <t>857 HK</t>
+  </si>
+  <si>
+    <t>Nextera Energy</t>
+  </si>
+  <si>
+    <t>NEE</t>
+  </si>
+  <si>
+    <t>TTE FP</t>
+  </si>
+  <si>
+    <t>TotalEnergies</t>
+  </si>
+  <si>
+    <t>Enbridge</t>
+  </si>
+  <si>
+    <t>ENB CN</t>
+  </si>
+  <si>
+    <t>CEG</t>
+  </si>
+  <si>
+    <t>Constellation Energy</t>
+  </si>
+  <si>
+    <t>Duke Energy</t>
+  </si>
+  <si>
+    <t>DUK</t>
+  </si>
+  <si>
+    <t>Petrobras</t>
+  </si>
+  <si>
+    <t>PETR4 BZ</t>
+  </si>
+  <si>
+    <t>ConocoPhillips</t>
+  </si>
+  <si>
+    <t>COP</t>
+  </si>
+  <si>
+    <t>China Shenhua Energy</t>
+  </si>
+  <si>
+    <t>1088 HK</t>
+  </si>
+  <si>
+    <t>Abu Dhabi National Energy</t>
+  </si>
+  <si>
+    <t>TAQA UH</t>
+  </si>
+  <si>
+    <t>China Yangtze Power</t>
+  </si>
+  <si>
+    <t>600900 CH</t>
+  </si>
+  <si>
+    <t>BP/ LN</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>CNOOC</t>
+  </si>
+  <si>
+    <t>883 HK</t>
   </si>
 </sst>
 </file>
@@ -207,12 +294,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -228,7 +321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -259,6 +352,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -701,24 +795,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23773607-D465-464F-AEDB-7534D12B8447}">
-  <dimension ref="C1:AD13"/>
+  <dimension ref="A1:AD27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.54296875" customWidth="1"/>
     <col min="2" max="2" width="2" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="11" max="11" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -744,7 +838,7 @@
       <c r="AA1" s="6"/>
       <c r="AB1" s="6"/>
     </row>
-    <row r="2" spans="3:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -757,24 +851,24 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14" t="s">
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-    </row>
-    <row r="3" spans="3:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+    </row>
+    <row r="3" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
@@ -860,7 +954,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="3:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="C4" s="4" t="s">
         <v>33</v>
       </c>
@@ -889,7 +986,10 @@
       <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
     </row>
-    <row r="5" spans="3:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
@@ -925,7 +1025,10 @@
       <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
     </row>
-    <row r="6" spans="3:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
@@ -961,7 +1064,7 @@
       <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
     </row>
-    <row r="7" spans="3:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>31</v>
       </c>
@@ -997,7 +1100,7 @@
       <c r="AA7" s="6"/>
       <c r="AB7" s="6"/>
     </row>
-    <row r="8" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>19</v>
       </c>
@@ -1011,7 +1114,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="9" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>21</v>
       </c>
@@ -1025,7 +1128,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="10" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C10" s="10" t="s">
         <v>25</v>
       </c>
@@ -1058,7 +1161,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="11" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C11" s="10" t="s">
         <v>23</v>
       </c>
@@ -1091,7 +1194,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="12" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C12" s="10" t="s">
         <v>43</v>
       </c>
@@ -1124,7 +1227,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="13" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>44</v>
       </c>
@@ -1133,6 +1236,160 @@
       </c>
       <c r="E13" s="9">
         <v>64.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1157,9 +1414,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>35</v>
       </c>
@@ -1167,7 +1424,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>37</v>
       </c>
@@ -1175,7 +1432,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>39</v>
       </c>
@@ -1183,7 +1440,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>41</v>
       </c>

--- a/Energy.xlsx
+++ b/Energy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F08314C-1D21-46E1-B8EE-3E48E2F2D932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D761851D-958E-4E8A-AF02-A066453ACA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="470" yWindow="2770" windowWidth="21900" windowHeight="14640" xr2:uid="{7EDE0FC2-4900-4947-B864-F866171D13D2}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="25480" windowHeight="13910" xr2:uid="{7EDE0FC2-4900-4947-B864-F866171D13D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="90">
   <si>
     <t>Price</t>
   </si>
@@ -267,6 +267,51 @@
   </si>
   <si>
     <t>883 HK</t>
+  </si>
+  <si>
+    <t>Southern</t>
+  </si>
+  <si>
+    <t>Adnoc Gas plc</t>
+  </si>
+  <si>
+    <t>ADNOCGAS UH</t>
+  </si>
+  <si>
+    <t>Marathon Petroleum</t>
+  </si>
+  <si>
+    <t>Suncor Energy</t>
+  </si>
+  <si>
+    <t>SU CN</t>
+  </si>
+  <si>
+    <t>MPC US</t>
+  </si>
+  <si>
+    <t>TC Energy</t>
+  </si>
+  <si>
+    <t>TRP CN</t>
+  </si>
+  <si>
+    <t>Iberdrola</t>
+  </si>
+  <si>
+    <t>IBE SM</t>
+  </si>
+  <si>
+    <t>China Petroleum &amp; Chemical</t>
+  </si>
+  <si>
+    <t>386 HK</t>
+  </si>
+  <si>
+    <t>EQT Corp</t>
+  </si>
+  <si>
+    <t>EQT US</t>
   </si>
 </sst>
 </file>
@@ -795,13 +840,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23773607-D465-464F-AEDB-7534D12B8447}">
-  <dimension ref="A1:AD27"/>
+  <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="C35" sqref="C35:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1392,6 +1437,95 @@
         <v>74</v>
       </c>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="Q2:V2"/>

--- a/Energy.xlsx
+++ b/Energy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D761851D-958E-4E8A-AF02-A066453ACA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0414979-4FFC-4229-93A2-0EE3A4FAC5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="25480" windowHeight="13910" xr2:uid="{7EDE0FC2-4900-4947-B864-F866171D13D2}"/>
+    <workbookView xWindow="-19575" yWindow="930" windowWidth="18510" windowHeight="11235" xr2:uid="{7EDE0FC2-4900-4947-B864-F866171D13D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="159">
   <si>
     <t>Price</t>
   </si>
@@ -312,13 +312,220 @@
   </si>
   <si>
     <t>EQT US</t>
+  </si>
+  <si>
+    <t>ACWA Power</t>
+  </si>
+  <si>
+    <t>ACWA AB</t>
+  </si>
+  <si>
+    <t>Vistra</t>
+  </si>
+  <si>
+    <t>VST</t>
+  </si>
+  <si>
+    <t>MPLX LP</t>
+  </si>
+  <si>
+    <t>MPLX</t>
+  </si>
+  <si>
+    <t>United Overseas Bank</t>
+  </si>
+  <si>
+    <t>UOB SP</t>
+  </si>
+  <si>
+    <t>Caixabank</t>
+  </si>
+  <si>
+    <t>CABK SM</t>
+  </si>
+  <si>
+    <t>American International Group</t>
+  </si>
+  <si>
+    <t>AIG</t>
+  </si>
+  <si>
+    <t>Dominion Energy</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Cheniere Energy</t>
+  </si>
+  <si>
+    <t>LNG</t>
+  </si>
+  <si>
+    <t>Diamondback</t>
+  </si>
+  <si>
+    <t>FANG</t>
+  </si>
+  <si>
+    <t>Hess</t>
+  </si>
+  <si>
+    <t>HES</t>
+  </si>
+  <si>
+    <t>Targa Resources</t>
+  </si>
+  <si>
+    <t>TRGP</t>
+  </si>
+  <si>
+    <t>Exelon</t>
+  </si>
+  <si>
+    <t>EXC</t>
+  </si>
+  <si>
+    <t>PG&amp;E</t>
+  </si>
+  <si>
+    <t>PCG</t>
+  </si>
+  <si>
+    <t>Valero</t>
+  </si>
+  <si>
+    <t>VLO</t>
+  </si>
+  <si>
+    <t>Xcel Energy</t>
+  </si>
+  <si>
+    <t>XEL</t>
+  </si>
+  <si>
+    <t>Imperial Oil Ltd</t>
+  </si>
+  <si>
+    <t>IMO CN</t>
+  </si>
+  <si>
+    <t>Entergy</t>
+  </si>
+  <si>
+    <t>ETR</t>
+  </si>
+  <si>
+    <t>Dubai Electricity &amp; Water</t>
+  </si>
+  <si>
+    <t>DEWA UH</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>NTPC Ltd</t>
+  </si>
+  <si>
+    <t>NTPC IN</t>
+  </si>
+  <si>
+    <t>Oil &amp; Natural Gas Corp Ltd</t>
+  </si>
+  <si>
+    <t>ONGC IN</t>
+  </si>
+  <si>
+    <t>Consolidated Edison</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>Enel</t>
+  </si>
+  <si>
+    <t>ENEL IM</t>
+  </si>
+  <si>
+    <t>EOG Resources</t>
+  </si>
+  <si>
+    <t>EOG</t>
+  </si>
+  <si>
+    <t>Enterprise Products Partners</t>
+  </si>
+  <si>
+    <t>EPD</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>WMB</t>
+  </si>
+  <si>
+    <t>Energy Transfer LP</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>Equinor ASA</t>
+  </si>
+  <si>
+    <t>EQNR NO</t>
+  </si>
+  <si>
+    <t>Canadian Natural Resources</t>
+  </si>
+  <si>
+    <t>CNQ CN</t>
+  </si>
+  <si>
+    <t>ONEOK</t>
+  </si>
+  <si>
+    <t>OKE</t>
+  </si>
+  <si>
+    <t>American Electric Power</t>
+  </si>
+  <si>
+    <t>AEP</t>
+  </si>
+  <si>
+    <t>Kinder Morgan</t>
+  </si>
+  <si>
+    <t>KMI</t>
+  </si>
+  <si>
+    <t>National Grid PLC</t>
+  </si>
+  <si>
+    <t>NG/ LN</t>
+  </si>
+  <si>
+    <t>Sempra</t>
+  </si>
+  <si>
+    <t>SRE</t>
+  </si>
+  <si>
+    <t>Phillips 66</t>
+  </si>
+  <si>
+    <t>PSX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -335,6 +542,16 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -362,11 +579,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -398,11 +616,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="defaultsheetstyle" xfId="2" xr:uid="{48F56859-A174-4E37-962D-D6AE7CDFD373}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -840,24 +1062,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23773607-D465-464F-AEDB-7534D12B8447}">
-  <dimension ref="A1:AD35"/>
+  <dimension ref="A1:AD69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C35" sqref="C35:D35"/>
+      <selection pane="bottomRight" activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.54296875" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
     <col min="2" max="2" width="2" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
-    <col min="11" max="11" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -883,7 +1108,7 @@
       <c r="AA1" s="6"/>
       <c r="AB1" s="6"/>
     </row>
-    <row r="2" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -896,24 +1121,24 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15" t="s">
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-    </row>
-    <row r="3" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+    </row>
+    <row r="3" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
@@ -999,7 +1224,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -1031,7 +1256,7 @@
       <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
     </row>
-    <row r="5" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -1070,7 +1295,7 @@
       <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
     </row>
-    <row r="6" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>46</v>
       </c>
@@ -1109,7 +1334,10 @@
       <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
     </row>
-    <row r="7" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="C7" t="s">
         <v>31</v>
       </c>
@@ -1145,7 +1373,7 @@
       <c r="AA7" s="6"/>
       <c r="AB7" s="6"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>19</v>
       </c>
@@ -1159,7 +1387,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>21</v>
       </c>
@@ -1173,7 +1401,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="10" t="s">
         <v>25</v>
       </c>
@@ -1206,7 +1434,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="10" t="s">
         <v>23</v>
       </c>
@@ -1239,7 +1467,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="10" t="s">
         <v>43</v>
       </c>
@@ -1272,7 +1500,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>44</v>
       </c>
@@ -1283,7 +1511,7 @@
         <v>64.75</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
@@ -1294,7 +1522,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
@@ -1305,7 +1533,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>46</v>
       </c>
@@ -1316,7 +1544,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>46</v>
       </c>
@@ -1327,7 +1555,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>46</v>
       </c>
@@ -1338,7 +1566,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
@@ -1349,7 +1577,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>46</v>
       </c>
@@ -1360,7 +1588,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>46</v>
       </c>
@@ -1371,7 +1599,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>46</v>
       </c>
@@ -1382,7 +1610,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>46</v>
       </c>
@@ -1393,7 +1621,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>46</v>
       </c>
@@ -1404,7 +1632,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>46</v>
       </c>
@@ -1415,7 +1643,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>46</v>
       </c>
@@ -1426,7 +1654,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>46</v>
       </c>
@@ -1437,7 +1665,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>46</v>
       </c>
@@ -1448,7 +1676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>46</v>
       </c>
@@ -1459,7 +1687,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>46</v>
       </c>
@@ -1470,7 +1698,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>46</v>
       </c>
@@ -1481,7 +1709,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>46</v>
       </c>
@@ -1492,7 +1720,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>46</v>
       </c>
@@ -1503,7 +1731,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>46</v>
       </c>
@@ -1515,7 +1743,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>46</v>
       </c>
@@ -1524,6 +1752,380 @@
       </c>
       <c r="D35" s="4" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" t="s">
+        <v>129</v>
+      </c>
+      <c r="D55" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" t="s">
+        <v>139</v>
+      </c>
+      <c r="D60" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" t="s">
+        <v>141</v>
+      </c>
+      <c r="D61" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" t="s">
+        <v>145</v>
+      </c>
+      <c r="D63" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" t="s">
+        <v>147</v>
+      </c>
+      <c r="D64" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" t="s">
+        <v>149</v>
+      </c>
+      <c r="D65" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" t="s">
+        <v>151</v>
+      </c>
+      <c r="D66" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C67" t="s">
+        <v>153</v>
+      </c>
+      <c r="D67" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C68" t="s">
+        <v>155</v>
+      </c>
+      <c r="D68" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69" t="s">
+        <v>157</v>
+      </c>
+      <c r="D69" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1548,9 +2150,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>35</v>
       </c>
@@ -1558,7 +2160,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>37</v>
       </c>
@@ -1566,7 +2168,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>39</v>
       </c>
@@ -1574,7 +2176,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>41</v>
       </c>

--- a/Energy.xlsx
+++ b/Energy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0414979-4FFC-4229-93A2-0EE3A4FAC5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12D7EF0-9293-4F62-949F-746D41E06C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19575" yWindow="930" windowWidth="18510" windowHeight="11235" xr2:uid="{7EDE0FC2-4900-4947-B864-F866171D13D2}"/>
+    <workbookView xWindow="-25890" yWindow="2055" windowWidth="25590" windowHeight="15345" xr2:uid="{7EDE0FC2-4900-4947-B864-F866171D13D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="165">
   <si>
     <t>Price</t>
   </si>
@@ -519,6 +519,24 @@
   </si>
   <si>
     <t>PSX</t>
+  </si>
+  <si>
+    <t>Barito Renewables Energy</t>
+  </si>
+  <si>
+    <t>BREN IJ</t>
+  </si>
+  <si>
+    <t>Eni</t>
+  </si>
+  <si>
+    <t>ENI IM</t>
+  </si>
+  <si>
+    <t>Public Service Enterprise Group</t>
+  </si>
+  <si>
+    <t>PEG</t>
   </si>
 </sst>
 </file>
@@ -1062,13 +1080,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23773607-D465-464F-AEDB-7534D12B8447}">
-  <dimension ref="A1:AD69"/>
+  <dimension ref="A1:AD72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D70" sqref="D70"/>
+      <selection pane="bottomRight" activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2126,6 +2144,39 @@
       </c>
       <c r="D69" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C70" t="s">
+        <v>159</v>
+      </c>
+      <c r="D70" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" t="s">
+        <v>161</v>
+      </c>
+      <c r="D71" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C72" t="s">
+        <v>163</v>
+      </c>
+      <c r="D72" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
